--- a/ExcelSheets/LR.xlsx
+++ b/ExcelSheets/LR.xlsx
@@ -1017,7 +1017,7 @@
       <c r="B8" s="23" t="n"/>
       <c r="C8" s="14" t="inlineStr">
         <is>
-          <t>STEVESON</t>
+          <t>PEOPLE TEST</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">

--- a/ExcelSheets/LR.xlsx
+++ b/ExcelSheets/LR.xlsx
@@ -1017,7 +1017,7 @@
       <c r="B8" s="23" t="n"/>
       <c r="C8" s="14" t="inlineStr">
         <is>
-          <t>PEOPLE TEST</t>
+          <t>DEFFTEST</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1207,13 +1207,21 @@
           <t>Net</t>
         </is>
       </c>
-      <c r="F17" s="12" t="inlineStr"/>
+      <c r="F17" s="12" t="inlineStr">
+        <is>
+          <t>HGFJ</t>
+        </is>
+      </c>
       <c r="G17" s="13" t="inlineStr">
         <is>
           <t>Invoice No:</t>
         </is>
       </c>
-      <c r="H17" s="50" t="inlineStr"/>
+      <c r="H17" s="50" t="inlineStr">
+        <is>
+          <t>HGJ</t>
+        </is>
+      </c>
       <c r="I17" s="24" t="n"/>
     </row>
     <row r="18" ht="15" customHeight="1" s="20" thickBot="1">
@@ -1228,7 +1236,11 @@
           <t>Eway bill No:</t>
         </is>
       </c>
-      <c r="H18" s="50" t="inlineStr"/>
+      <c r="H18" s="50" t="inlineStr">
+        <is>
+          <t>JFHJ</t>
+        </is>
+      </c>
       <c r="I18" s="24" t="n"/>
     </row>
     <row r="19" ht="15" customHeight="1" s="20" thickBot="1">
@@ -1237,7 +1249,11 @@
           <t>Container No</t>
         </is>
       </c>
-      <c r="B19" s="52" t="n"/>
+      <c r="B19" s="52" t="inlineStr">
+        <is>
+          <t>HJXCZH</t>
+        </is>
+      </c>
       <c r="C19" s="29" t="n"/>
       <c r="D19" s="60" t="n"/>
       <c r="E19" s="4" t="n"/>
@@ -1247,7 +1263,11 @@
           <t>Remarks</t>
         </is>
       </c>
-      <c r="H19" s="22" t="inlineStr"/>
+      <c r="H19" s="22" t="inlineStr">
+        <is>
+          <t>GFDVHJK</t>
+        </is>
+      </c>
       <c r="I19" s="29" t="n"/>
     </row>
     <row r="20" ht="32.45" customHeight="1" s="20" thickBot="1">
@@ -1256,7 +1276,7 @@
           <t>Seal No.</t>
         </is>
       </c>
-      <c r="B20" s="58" t="n"/>
+      <c r="B20" s="58" t="inlineStr"/>
       <c r="C20" s="32" t="n"/>
       <c r="D20" s="61" t="n"/>
       <c r="E20" s="6" t="n"/>

--- a/ExcelSheets/LR.xlsx
+++ b/ExcelSheets/LR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -630,6 +630,134 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>193638</colOff>
+      <row>3</row>
+      <rowOff>80682</rowOff>
+    </from>
+    <to>
+      <col>1</col>
+      <colOff>358589</colOff>
+      <row>6</row>
+      <rowOff>322730</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="image2.jpeg"/>
+        <cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:xfrm>
+          <a:off x="193638" y="851647"/>
+          <a:ext cx="1007633" cy="896471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>704625</colOff>
+      <row>9</row>
+      <rowOff>36322</rowOff>
+    </from>
+    <to>
+      <col>8</col>
+      <colOff>636494</colOff>
+      <row>36</row>
+      <rowOff>767</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="image1.png"/>
+        <cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:xfrm>
+          <a:off x="704625" y="2295428"/>
+          <a:ext cx="6529893" cy="6257668"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>5</col>
+      <colOff>349624</colOff>
+      <row>21</row>
+      <rowOff>161364</rowOff>
+    </from>
+    <to>
+      <col>9</col>
+      <colOff>349622</colOff>
+      <row>25</row>
+      <rowOff>45697</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Picture 4"/>
+        <cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:xfrm>
+          <a:off x="4930589" y="4885764"/>
+          <a:ext cx="3164540" cy="771839"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -901,29 +1029,29 @@
   </sheetPr>
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="12.28515625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="12.21875" customWidth="1" style="20" min="1" max="1"/>
     <col width="11" customWidth="1" style="20" min="2" max="2"/>
-    <col width="18.85546875" customWidth="1" style="20" min="3" max="3"/>
+    <col width="18.88671875" customWidth="1" style="20" min="3" max="3"/>
     <col width="11" customWidth="1" style="20" min="4" max="4"/>
-    <col width="11.42578125" customWidth="1" style="20" min="5" max="5"/>
-    <col width="11.28515625" customWidth="1" style="20" min="6" max="6"/>
-    <col width="12.85546875" customWidth="1" style="20" min="7" max="7"/>
-    <col width="7.28515625" customWidth="1" style="20" min="8" max="8"/>
-    <col width="14.7109375" customWidth="1" style="20" min="9" max="9"/>
+    <col width="11.44140625" customWidth="1" style="20" min="5" max="5"/>
+    <col width="11.21875" customWidth="1" style="20" min="6" max="6"/>
+    <col width="12.88671875" customWidth="1" style="20" min="7" max="7"/>
+    <col width="7.33203125" customWidth="1" style="20" min="8" max="8"/>
+    <col width="14.6640625" customWidth="1" style="20" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="2.45" customHeight="1" s="20" thickBot="1">
+    <row r="1" ht="2.4" customHeight="1" s="20" thickBot="1">
       <c r="A1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="29.45" customHeight="1" s="20" thickBot="1">
+    <row r="2" ht="29.4" customHeight="1" s="20" thickBot="1">
       <c r="A2" s="42" t="inlineStr">
         <is>
           <t>NON NEGOTIABLE-CONSIGNMENT NOTE</t>
@@ -938,7 +1066,7 @@
       <c r="H2" s="23" t="n"/>
       <c r="I2" s="24" t="n"/>
     </row>
-    <row r="3" ht="28.9" customHeight="1" s="20" thickBot="1">
+    <row r="3" ht="28.8" customHeight="1" s="20" thickBot="1">
       <c r="A3" s="30" t="inlineStr">
         <is>
           <t>a q u a t r a n s</t>
@@ -989,7 +1117,7 @@
       </c>
       <c r="I6" s="21" t="n"/>
     </row>
-    <row r="7" ht="32.45" customHeight="1" s="20" thickBot="1">
+    <row r="7" ht="32.4" customHeight="1" s="20" thickBot="1">
       <c r="A7" s="64" t="inlineStr">
         <is>
           <t xml:space="preserve">                                               Subject to Surat Jurisdiction</t>
@@ -1270,7 +1398,7 @@
       </c>
       <c r="I19" s="29" t="n"/>
     </row>
-    <row r="20" ht="32.45" customHeight="1" s="20" thickBot="1">
+    <row r="20" ht="32.4" customHeight="1" s="20" thickBot="1">
       <c r="A20" s="16" t="inlineStr">
         <is>
           <t>Seal No.</t>
@@ -1303,7 +1431,7 @@
       </c>
       <c r="I21" s="21" t="n"/>
     </row>
-    <row r="22" ht="22.15" customHeight="1" s="20" thickBot="1">
+    <row r="22" ht="22.2" customHeight="1" s="20" thickBot="1">
       <c r="A22" s="16" t="inlineStr">
         <is>
           <t>&amp; Time</t>
@@ -1331,7 +1459,7 @@
       <c r="G23" s="41" t="n"/>
       <c r="I23" s="21" t="n"/>
     </row>
-    <row r="24" ht="19.15" customHeight="1" s="20" thickBot="1">
+    <row r="24" ht="19.2" customHeight="1" s="20" thickBot="1">
       <c r="A24" s="17" t="inlineStr">
         <is>
           <t>&amp; Time</t>
@@ -1359,7 +1487,7 @@
       <c r="G25" s="47" t="n"/>
       <c r="I25" s="21" t="n"/>
     </row>
-    <row r="26" ht="52.15" customHeight="1" s="20" thickBot="1">
+    <row r="26" ht="52.2" customHeight="1" s="20" thickBot="1">
       <c r="A26" s="35" t="inlineStr">
         <is>
           <t>the same to driver</t>
@@ -1377,7 +1505,7 @@
       </c>
       <c r="I26" s="21" t="n"/>
     </row>
-    <row r="27" ht="23.45" customHeight="1" s="20">
+    <row r="27" ht="23.4" customHeight="1" s="20">
       <c r="A27" s="27" t="inlineStr">
         <is>
           <t>Terms&amp; Conditions</t>
@@ -1440,7 +1568,7 @@
       </c>
       <c r="I33" s="21" t="n"/>
     </row>
-    <row r="34" ht="19.15" customHeight="1" s="20">
+    <row r="34" ht="19.2" customHeight="1" s="20">
       <c r="A34" s="19" t="inlineStr">
         <is>
           <t>5.If by chance any loaded truck/trailer catches fire the company shall not be responsible for that</t>
@@ -1480,7 +1608,7 @@
       </c>
       <c r="I38" s="21" t="n"/>
     </row>
-    <row r="39" ht="19.9" customHeight="1" s="20">
+    <row r="39" ht="19.8" customHeight="1" s="20">
       <c r="A39" s="19" t="inlineStr">
         <is>
           <t>9. There is no guaranteefor bringing the goods back.</t>
@@ -1488,7 +1616,7 @@
       </c>
       <c r="I39" s="21" t="n"/>
     </row>
-    <row r="40" ht="19.15" customHeight="1" s="20">
+    <row r="40" ht="19.2" customHeight="1" s="20">
       <c r="A40" s="19" t="inlineStr">
         <is>
           <t>10.Timings of departure and arrivals are not guarentteed and are subject to change without notice at any time.</t>
@@ -1496,7 +1624,7 @@
       </c>
       <c r="I40" s="21" t="n"/>
     </row>
-    <row r="41" ht="22.9" customHeight="1" s="20">
+    <row r="41" ht="22.8" customHeight="1" s="20">
       <c r="A41" s="19" t="inlineStr">
         <is>
           <t>11. Goods accepted subject to terms &amp; conditions printed as above</t>
@@ -1504,11 +1632,11 @@
       </c>
       <c r="I41" s="21" t="n"/>
     </row>
-    <row r="42" ht="52.15" customHeight="1" s="20">
+    <row r="42" ht="52.2" customHeight="1" s="20">
       <c r="A42" s="44" t="n"/>
       <c r="I42" s="21" t="n"/>
     </row>
-    <row r="43" ht="28.9" customHeight="1" s="20">
+    <row r="43" ht="28.8" customHeight="1" s="20">
       <c r="A43" s="51" t="inlineStr">
         <is>
           <t>Wheels On Duty</t>
@@ -1516,7 +1644,7 @@
       </c>
       <c r="I43" s="21" t="n"/>
     </row>
-    <row r="44" ht="35.45" customHeight="1" s="20" thickBot="1">
+    <row r="44" ht="35.4" customHeight="1" s="20" thickBot="1">
       <c r="A44" s="54" t="inlineStr">
         <is>
           <t>AT OWNERS RISK</t>
@@ -1592,5 +1720,6 @@
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" scale="90" fitToHeight="2"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ExcelSheets/LR.xlsx
+++ b/ExcelSheets/LR.xlsx
@@ -630,134 +630,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <twoCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>193638</colOff>
-      <row>3</row>
-      <rowOff>80682</rowOff>
-    </from>
-    <to>
-      <col>1</col>
-      <colOff>358589</colOff>
-      <row>6</row>
-      <rowOff>322730</rowOff>
-    </to>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="image2.jpeg"/>
-        <cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </cNvPicPr>
-      </nvPicPr>
-      <blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm>
-          <a:off x="193638" y="851647"/>
-          <a:ext cx="1007633" cy="896471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </twoCellAnchor>
-  <twoCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>704625</colOff>
-      <row>9</row>
-      <rowOff>36322</rowOff>
-    </from>
-    <to>
-      <col>8</col>
-      <colOff>636494</colOff>
-      <row>36</row>
-      <rowOff>767</rowOff>
-    </to>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="image1.png"/>
-        <cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </cNvPicPr>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm>
-          <a:off x="704625" y="2295428"/>
-          <a:ext cx="6529893" cy="6257668"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </twoCellAnchor>
-  <twoCellAnchor editAs="oneCell">
-    <from>
-      <col>5</col>
-      <colOff>349624</colOff>
-      <row>21</row>
-      <rowOff>161364</rowOff>
-    </from>
-    <to>
-      <col>9</col>
-      <colOff>349622</colOff>
-      <row>25</row>
-      <rowOff>45697</rowOff>
-    </to>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="5" name="Picture 4"/>
-        <cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </cNvPicPr>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm>
-          <a:off x="4930589" y="4885764"/>
-          <a:ext cx="3164540" cy="771839"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </twoCellAnchor>
-</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1163,7 +1035,7 @@
       <c r="H8" s="24" t="n"/>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>DHFKJHGJHGGG</t>
+          <t>009</t>
         </is>
       </c>
     </row>
@@ -1720,6 +1592,5 @@
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" scale="90" fitToHeight="2"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>